--- a/base/base_cfop.xlsx
+++ b/base/base_cfop.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stefaninilatam-my.sharepoint.com/personal/htvermonde_latam_stefanini_com/Documents/Documentos/Codigos/automacao-utils/ReformaDados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stefaninilatam-my.sharepoint.com/personal/htvermonde_latam_stefanini_com/Documents/Documentos/Codigos/reforma-tributaria-v1/base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_78B12B53135AE40E62355476585DCE3A8745E06F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7563735-90E6-4AE7-AF06-ACDBDA014F20}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_78B12B53135AE40E62355476585DCE3A8745E06F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{683326CA-9CF9-43E3-905A-AC81C76A8127}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3375" yWindow="3375" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$609</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -3112,14 +3115,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:B609"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B613" sqref="B613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="99.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3131,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3139,7 +3144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3147,7 +3152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3155,7 +3160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3163,7 +3168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3171,7 +3176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3179,7 +3184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3187,7 +3192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3195,7 +3200,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3203,7 +3208,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3211,7 +3216,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3219,7 +3224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3227,7 +3232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3235,7 +3240,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -3243,7 +3248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -3251,7 +3256,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -3259,7 +3264,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3267,7 +3272,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -3275,7 +3280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -3283,7 +3288,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -3291,7 +3296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -3299,7 +3304,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -3307,7 +3312,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -3315,7 +3320,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -3323,7 +3328,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -3331,7 +3336,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -3339,7 +3344,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -3347,7 +3352,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -3355,7 +3360,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -3363,7 +3368,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -3371,7 +3376,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -3379,7 +3384,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -3387,7 +3392,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -3395,7 +3400,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -3403,7 +3408,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -3411,7 +3416,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -3419,7 +3424,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -3427,7 +3432,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -3435,7 +3440,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -3443,7 +3448,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -3451,7 +3456,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -3459,7 +3464,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -3467,7 +3472,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -3475,7 +3480,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -3483,7 +3488,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -3491,7 +3496,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -3499,7 +3504,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -3507,7 +3512,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -3515,7 +3520,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -3523,7 +3528,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -3531,7 +3536,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -3539,7 +3544,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -3547,7 +3552,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -3555,7 +3560,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -3563,7 +3568,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -3571,7 +3576,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -3579,7 +3584,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -3587,7 +3592,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -3595,7 +3600,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -3603,7 +3608,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -3611,7 +3616,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -3619,7 +3624,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>124</v>
       </c>
@@ -3627,7 +3632,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>126</v>
       </c>
@@ -3635,7 +3640,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>128</v>
       </c>
@@ -3643,7 +3648,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>130</v>
       </c>
@@ -3651,7 +3656,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -3659,7 +3664,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>134</v>
       </c>
@@ -3667,7 +3672,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>136</v>
       </c>
@@ -3675,7 +3680,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>138</v>
       </c>
@@ -3683,7 +3688,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>140</v>
       </c>
@@ -3691,7 +3696,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>142</v>
       </c>
@@ -3699,7 +3704,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>144</v>
       </c>
@@ -3707,7 +3712,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>146</v>
       </c>
@@ -3715,7 +3720,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -3723,7 +3728,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>150</v>
       </c>
@@ -3731,7 +3736,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>152</v>
       </c>
@@ -3739,7 +3744,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>154</v>
       </c>
@@ -3747,7 +3752,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>156</v>
       </c>
@@ -3755,7 +3760,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -3763,7 +3768,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>160</v>
       </c>
@@ -3771,7 +3776,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>162</v>
       </c>
@@ -3779,7 +3784,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -3787,7 +3792,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>166</v>
       </c>
@@ -3795,7 +3800,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>168</v>
       </c>
@@ -3803,7 +3808,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -3811,7 +3816,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>172</v>
       </c>
@@ -3819,7 +3824,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>174</v>
       </c>
@@ -3827,7 +3832,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -3835,7 +3840,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>178</v>
       </c>
@@ -3843,7 +3848,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>180</v>
       </c>
@@ -3851,7 +3856,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>182</v>
       </c>
@@ -3859,7 +3864,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>184</v>
       </c>
@@ -3867,7 +3872,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>186</v>
       </c>
@@ -3883,7 +3888,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -3891,7 +3896,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>192</v>
       </c>
@@ -3899,7 +3904,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>194</v>
       </c>
@@ -3907,7 +3912,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>196</v>
       </c>
@@ -3915,7 +3920,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>198</v>
       </c>
@@ -3923,7 +3928,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -3931,7 +3936,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>202</v>
       </c>
@@ -3939,7 +3944,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -3947,7 +3952,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>206</v>
       </c>
@@ -3955,7 +3960,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>208</v>
       </c>
@@ -3963,7 +3968,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>210</v>
       </c>
@@ -3971,7 +3976,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>212</v>
       </c>
@@ -3979,7 +3984,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>214</v>
       </c>
@@ -3987,7 +3992,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -3995,7 +4000,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>218</v>
       </c>
@@ -4003,7 +4008,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>220</v>
       </c>
@@ -4011,7 +4016,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>222</v>
       </c>
@@ -4019,7 +4024,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>224</v>
       </c>
@@ -4027,7 +4032,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>226</v>
       </c>
@@ -4035,7 +4040,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>228</v>
       </c>
@@ -4043,7 +4048,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>230</v>
       </c>
@@ -4051,7 +4056,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>232</v>
       </c>
@@ -4059,7 +4064,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>234</v>
       </c>
@@ -4067,7 +4072,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -4075,7 +4080,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>238</v>
       </c>
@@ -4083,7 +4088,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>240</v>
       </c>
@@ -4091,7 +4096,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -4099,7 +4104,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>244</v>
       </c>
@@ -4107,7 +4112,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>246</v>
       </c>
@@ -4115,7 +4120,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -4123,7 +4128,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -4131,7 +4136,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -4139,7 +4144,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>254</v>
       </c>
@@ -4147,7 +4152,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>256</v>
       </c>
@@ -4155,7 +4160,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>258</v>
       </c>
@@ -4163,7 +4168,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -4171,7 +4176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>261</v>
       </c>
@@ -4179,7 +4184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>262</v>
       </c>
@@ -4187,7 +4192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>263</v>
       </c>
@@ -4195,7 +4200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>264</v>
       </c>
@@ -4203,7 +4208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>265</v>
       </c>
@@ -4211,7 +4216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>266</v>
       </c>
@@ -4219,7 +4224,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>267</v>
       </c>
@@ -4227,7 +4232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>268</v>
       </c>
@@ -4235,7 +4240,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>269</v>
       </c>
@@ -4243,7 +4248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>270</v>
       </c>
@@ -4251,7 +4256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>271</v>
       </c>
@@ -4259,7 +4264,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>272</v>
       </c>
@@ -4267,7 +4272,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>273</v>
       </c>
@@ -4275,7 +4280,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>275</v>
       </c>
@@ -4283,7 +4288,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>276</v>
       </c>
@@ -4291,7 +4296,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>277</v>
       </c>
@@ -4299,7 +4304,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>278</v>
       </c>
@@ -4307,7 +4312,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>279</v>
       </c>
@@ -4315,7 +4320,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>280</v>
       </c>
@@ -4323,7 +4328,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>281</v>
       </c>
@@ -4331,7 +4336,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>282</v>
       </c>
@@ -4339,7 +4344,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>283</v>
       </c>
@@ -4347,7 +4352,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>284</v>
       </c>
@@ -4355,7 +4360,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>285</v>
       </c>
@@ -4363,7 +4368,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>286</v>
       </c>
@@ -4371,7 +4376,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>287</v>
       </c>
@@ -4379,7 +4384,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>288</v>
       </c>
@@ -4387,7 +4392,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>289</v>
       </c>
@@ -4395,7 +4400,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>290</v>
       </c>
@@ -4403,7 +4408,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>291</v>
       </c>
@@ -4411,7 +4416,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>292</v>
       </c>
@@ -4419,7 +4424,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>293</v>
       </c>
@@ -4427,7 +4432,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>294</v>
       </c>
@@ -4435,7 +4440,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>295</v>
       </c>
@@ -4443,7 +4448,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>296</v>
       </c>
@@ -4451,7 +4456,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>297</v>
       </c>
@@ -4459,7 +4464,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>298</v>
       </c>
@@ -4467,7 +4472,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>299</v>
       </c>
@@ -4475,7 +4480,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>300</v>
       </c>
@@ -4483,7 +4488,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>301</v>
       </c>
@@ -4491,7 +4496,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>302</v>
       </c>
@@ -4499,7 +4504,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>303</v>
       </c>
@@ -4507,7 +4512,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>304</v>
       </c>
@@ -4515,7 +4520,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>305</v>
       </c>
@@ -4523,7 +4528,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>306</v>
       </c>
@@ -4531,7 +4536,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>307</v>
       </c>
@@ -4539,7 +4544,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>308</v>
       </c>
@@ -4547,7 +4552,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>309</v>
       </c>
@@ -4555,7 +4560,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>310</v>
       </c>
@@ -4563,7 +4568,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>311</v>
       </c>
@@ -4571,7 +4576,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>312</v>
       </c>
@@ -4579,7 +4584,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>313</v>
       </c>
@@ -4587,7 +4592,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>314</v>
       </c>
@@ -4595,7 +4600,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>315</v>
       </c>
@@ -4603,7 +4608,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>316</v>
       </c>
@@ -4611,7 +4616,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>317</v>
       </c>
@@ -4619,7 +4624,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>318</v>
       </c>
@@ -4627,7 +4632,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>319</v>
       </c>
@@ -4635,7 +4640,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>320</v>
       </c>
@@ -4643,7 +4648,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>321</v>
       </c>
@@ -4651,7 +4656,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>322</v>
       </c>
@@ -4659,7 +4664,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>323</v>
       </c>
@@ -4667,7 +4672,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>324</v>
       </c>
@@ -4675,7 +4680,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>325</v>
       </c>
@@ -4683,7 +4688,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>326</v>
       </c>
@@ -4691,7 +4696,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>327</v>
       </c>
@@ -4699,7 +4704,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>328</v>
       </c>
@@ -4707,7 +4712,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>329</v>
       </c>
@@ -4715,7 +4720,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>330</v>
       </c>
@@ -4723,7 +4728,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>331</v>
       </c>
@@ -4731,7 +4736,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>332</v>
       </c>
@@ -4739,7 +4744,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>333</v>
       </c>
@@ -4747,7 +4752,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>334</v>
       </c>
@@ -4755,7 +4760,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>335</v>
       </c>
@@ -4763,7 +4768,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>336</v>
       </c>
@@ -4771,7 +4776,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>337</v>
       </c>
@@ -4779,7 +4784,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>338</v>
       </c>
@@ -4787,7 +4792,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>340</v>
       </c>
@@ -4795,7 +4800,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>341</v>
       </c>
@@ -4803,7 +4808,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>342</v>
       </c>
@@ -4811,7 +4816,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>343</v>
       </c>
@@ -4819,7 +4824,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>344</v>
       </c>
@@ -4827,7 +4832,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>345</v>
       </c>
@@ -4835,7 +4840,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>346</v>
       </c>
@@ -4843,7 +4848,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>347</v>
       </c>
@@ -4851,7 +4856,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>348</v>
       </c>
@@ -4859,7 +4864,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>349</v>
       </c>
@@ -4867,7 +4872,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>350</v>
       </c>
@@ -4875,7 +4880,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>351</v>
       </c>
@@ -4883,7 +4888,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>352</v>
       </c>
@@ -4891,7 +4896,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>353</v>
       </c>
@@ -4899,7 +4904,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>354</v>
       </c>
@@ -4907,7 +4912,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>355</v>
       </c>
@@ -4915,7 +4920,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>356</v>
       </c>
@@ -4923,7 +4928,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>357</v>
       </c>
@@ -4931,7 +4936,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>358</v>
       </c>
@@ -4939,7 +4944,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>359</v>
       </c>
@@ -4947,7 +4952,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>360</v>
       </c>
@@ -4955,7 +4960,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>361</v>
       </c>
@@ -4963,7 +4968,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>362</v>
       </c>
@@ -4971,7 +4976,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>363</v>
       </c>
@@ -4979,7 +4984,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>364</v>
       </c>
@@ -4987,7 +4992,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>365</v>
       </c>
@@ -4995,7 +5000,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>366</v>
       </c>
@@ -5003,7 +5008,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>367</v>
       </c>
@@ -5011,7 +5016,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>368</v>
       </c>
@@ -5019,7 +5024,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>369</v>
       </c>
@@ -5027,7 +5032,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>370</v>
       </c>
@@ -5035,7 +5040,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>371</v>
       </c>
@@ -5043,7 +5048,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>372</v>
       </c>
@@ -5051,7 +5056,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>373</v>
       </c>
@@ -5059,7 +5064,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>374</v>
       </c>
@@ -5067,7 +5072,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>375</v>
       </c>
@@ -5075,7 +5080,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>376</v>
       </c>
@@ -5083,7 +5088,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>377</v>
       </c>
@@ -5091,7 +5096,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>378</v>
       </c>
@@ -5099,7 +5104,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>380</v>
       </c>
@@ -5107,7 +5112,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>382</v>
       </c>
@@ -5115,7 +5120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>383</v>
       </c>
@@ -5123,7 +5128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>384</v>
       </c>
@@ -5131,7 +5136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>385</v>
       </c>
@@ -5139,7 +5144,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>386</v>
       </c>
@@ -5147,7 +5152,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>388</v>
       </c>
@@ -5155,7 +5160,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>389</v>
       </c>
@@ -5163,7 +5168,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>390</v>
       </c>
@@ -5171,7 +5176,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>391</v>
       </c>
@@ -5179,7 +5184,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>392</v>
       </c>
@@ -5187,7 +5192,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>393</v>
       </c>
@@ -5195,7 +5200,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>394</v>
       </c>
@@ -5203,7 +5208,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>396</v>
       </c>
@@ -5211,7 +5216,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>397</v>
       </c>
@@ -5219,7 +5224,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>398</v>
       </c>
@@ -5227,7 +5232,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>399</v>
       </c>
@@ -5235,7 +5240,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>400</v>
       </c>
@@ -5243,7 +5248,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>401</v>
       </c>
@@ -5251,7 +5256,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>402</v>
       </c>
@@ -5259,7 +5264,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>403</v>
       </c>
@@ -5267,7 +5272,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>404</v>
       </c>
@@ -5275,7 +5280,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>405</v>
       </c>
@@ -5283,7 +5288,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>406</v>
       </c>
@@ -5291,7 +5296,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>407</v>
       </c>
@@ -5299,7 +5304,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>408</v>
       </c>
@@ -5307,7 +5312,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>410</v>
       </c>
@@ -5315,7 +5320,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>411</v>
       </c>
@@ -5323,7 +5328,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>412</v>
       </c>
@@ -5331,7 +5336,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>413</v>
       </c>
@@ -5339,7 +5344,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>414</v>
       </c>
@@ -5347,7 +5352,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>415</v>
       </c>
@@ -5355,7 +5360,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>416</v>
       </c>
@@ -5363,7 +5368,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>417</v>
       </c>
@@ -5371,7 +5376,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>418</v>
       </c>
@@ -5379,7 +5384,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>420</v>
       </c>
@@ -5387,7 +5392,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>421</v>
       </c>
@@ -5395,7 +5400,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>423</v>
       </c>
@@ -5403,7 +5408,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>425</v>
       </c>
@@ -5411,7 +5416,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>427</v>
       </c>
@@ -5419,7 +5424,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>429</v>
       </c>
@@ -5427,7 +5432,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>431</v>
       </c>
@@ -5435,7 +5440,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>433</v>
       </c>
@@ -5443,7 +5448,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>435</v>
       </c>
@@ -5451,7 +5456,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>437</v>
       </c>
@@ -5459,7 +5464,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>439</v>
       </c>
@@ -5467,7 +5472,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>441</v>
       </c>
@@ -5475,7 +5480,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>443</v>
       </c>
@@ -5483,7 +5488,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>445</v>
       </c>
@@ -5491,7 +5496,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>447</v>
       </c>
@@ -5499,7 +5504,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>449</v>
       </c>
@@ -5507,7 +5512,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>451</v>
       </c>
@@ -5515,7 +5520,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>453</v>
       </c>
@@ -5523,7 +5528,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>455</v>
       </c>
@@ -5531,7 +5536,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>457</v>
       </c>
@@ -5539,7 +5544,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>459</v>
       </c>
@@ -5547,7 +5552,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>461</v>
       </c>
@@ -5555,7 +5560,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>463</v>
       </c>
@@ -5563,7 +5568,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>465</v>
       </c>
@@ -5571,7 +5576,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>467</v>
       </c>
@@ -5579,7 +5584,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>469</v>
       </c>
@@ -5587,7 +5592,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>471</v>
       </c>
@@ -5595,7 +5600,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>473</v>
       </c>
@@ -5603,7 +5608,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>475</v>
       </c>
@@ -5611,7 +5616,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>477</v>
       </c>
@@ -5619,7 +5624,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>479</v>
       </c>
@@ -5627,7 +5632,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>481</v>
       </c>
@@ -5635,7 +5640,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>483</v>
       </c>
@@ -5643,7 +5648,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>485</v>
       </c>
@@ -5651,7 +5656,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>487</v>
       </c>
@@ -5659,7 +5664,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>489</v>
       </c>
@@ -5667,7 +5672,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>491</v>
       </c>
@@ -5675,7 +5680,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>493</v>
       </c>
@@ -5683,7 +5688,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>495</v>
       </c>
@@ -5691,7 +5696,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>497</v>
       </c>
@@ -5699,7 +5704,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>499</v>
       </c>
@@ -5707,7 +5712,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>501</v>
       </c>
@@ -5715,7 +5720,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>503</v>
       </c>
@@ -5723,7 +5728,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>505</v>
       </c>
@@ -5731,7 +5736,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>507</v>
       </c>
@@ -5739,7 +5744,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>509</v>
       </c>
@@ -5747,7 +5752,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>511</v>
       </c>
@@ -5755,7 +5760,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>513</v>
       </c>
@@ -5763,7 +5768,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>515</v>
       </c>
@@ -5771,7 +5776,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>517</v>
       </c>
@@ -5779,7 +5784,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>519</v>
       </c>
@@ -5787,7 +5792,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>521</v>
       </c>
@@ -5795,7 +5800,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>523</v>
       </c>
@@ -5803,7 +5808,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>525</v>
       </c>
@@ -5811,7 +5816,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>527</v>
       </c>
@@ -5819,7 +5824,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>529</v>
       </c>
@@ -5827,7 +5832,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>531</v>
       </c>
@@ -5835,7 +5840,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>533</v>
       </c>
@@ -5843,7 +5848,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>535</v>
       </c>
@@ -5851,7 +5856,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>537</v>
       </c>
@@ -5859,7 +5864,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>539</v>
       </c>
@@ -5867,7 +5872,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>541</v>
       </c>
@@ -5875,7 +5880,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>543</v>
       </c>
@@ -5883,7 +5888,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>545</v>
       </c>
@@ -5891,7 +5896,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>547</v>
       </c>
@@ -5899,7 +5904,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>549</v>
       </c>
@@ -5907,7 +5912,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>551</v>
       </c>
@@ -5915,7 +5920,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>553</v>
       </c>
@@ -5923,7 +5928,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>555</v>
       </c>
@@ -5931,7 +5936,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>557</v>
       </c>
@@ -5939,7 +5944,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>559</v>
       </c>
@@ -5947,7 +5952,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>561</v>
       </c>
@@ -5955,7 +5960,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>562</v>
       </c>
@@ -5963,7 +5968,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>564</v>
       </c>
@@ -5971,7 +5976,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>566</v>
       </c>
@@ -5979,7 +5984,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>568</v>
       </c>
@@ -5987,7 +5992,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>570</v>
       </c>
@@ -5995,7 +6000,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>572</v>
       </c>
@@ -6003,7 +6008,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>574</v>
       </c>
@@ -6011,7 +6016,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>576</v>
       </c>
@@ -6019,7 +6024,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>578</v>
       </c>
@@ -6027,7 +6032,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>579</v>
       </c>
@@ -6035,7 +6040,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>581</v>
       </c>
@@ -6043,7 +6048,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>583</v>
       </c>
@@ -6051,7 +6056,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>585</v>
       </c>
@@ -6059,7 +6064,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>587</v>
       </c>
@@ -6067,7 +6072,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>589</v>
       </c>
@@ -6075,7 +6080,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>591</v>
       </c>
@@ -6083,7 +6088,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>593</v>
       </c>
@@ -6091,7 +6096,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>594</v>
       </c>
@@ -6099,7 +6104,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>596</v>
       </c>
@@ -6107,7 +6112,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>597</v>
       </c>
@@ -6115,7 +6120,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>599</v>
       </c>
@@ -6123,7 +6128,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>601</v>
       </c>
@@ -6131,7 +6136,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>603</v>
       </c>
@@ -6139,7 +6144,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>605</v>
       </c>
@@ -6147,7 +6152,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>607</v>
       </c>
@@ -6155,7 +6160,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>608</v>
       </c>
@@ -6163,7 +6168,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>610</v>
       </c>
@@ -6171,7 +6176,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>612</v>
       </c>
@@ -6179,7 +6184,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>613</v>
       </c>
@@ -6187,7 +6192,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>615</v>
       </c>
@@ -6195,7 +6200,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>617</v>
       </c>
@@ -6203,7 +6208,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>619</v>
       </c>
@@ -6211,7 +6216,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>621</v>
       </c>
@@ -6219,7 +6224,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>623</v>
       </c>
@@ -6227,7 +6232,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>625</v>
       </c>
@@ -6235,7 +6240,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>627</v>
       </c>
@@ -6243,7 +6248,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>629</v>
       </c>
@@ -6251,7 +6256,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>631</v>
       </c>
@@ -6259,7 +6264,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>633</v>
       </c>
@@ -6267,7 +6272,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>635</v>
       </c>
@@ -6275,7 +6280,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>637</v>
       </c>
@@ -6283,7 +6288,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>639</v>
       </c>
@@ -6291,7 +6296,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>641</v>
       </c>
@@ -6299,7 +6304,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>643</v>
       </c>
@@ -6307,7 +6312,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>645</v>
       </c>
@@ -6315,7 +6320,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>647</v>
       </c>
@@ -6323,7 +6328,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>649</v>
       </c>
@@ -6331,7 +6336,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>651</v>
       </c>
@@ -6339,7 +6344,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>653</v>
       </c>
@@ -6347,7 +6352,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>655</v>
       </c>
@@ -6355,7 +6360,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>657</v>
       </c>
@@ -6363,7 +6368,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>659</v>
       </c>
@@ -6371,7 +6376,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>661</v>
       </c>
@@ -6379,7 +6384,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>663</v>
       </c>
@@ -6387,7 +6392,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>665</v>
       </c>
@@ -6395,7 +6400,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>667</v>
       </c>
@@ -6403,7 +6408,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>669</v>
       </c>
@@ -6411,7 +6416,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>671</v>
       </c>
@@ -6419,7 +6424,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>673</v>
       </c>
@@ -6427,7 +6432,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>675</v>
       </c>
@@ -6435,7 +6440,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>677</v>
       </c>
@@ -6443,7 +6448,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>679</v>
       </c>
@@ -6451,7 +6456,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>681</v>
       </c>
@@ -6459,7 +6464,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>683</v>
       </c>
@@ -6467,7 +6472,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>685</v>
       </c>
@@ -6475,7 +6480,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>687</v>
       </c>
@@ -6483,7 +6488,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>689</v>
       </c>
@@ -6491,7 +6496,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>691</v>
       </c>
@@ -6499,7 +6504,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>693</v>
       </c>
@@ -6507,7 +6512,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>695</v>
       </c>
@@ -6515,7 +6520,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>697</v>
       </c>
@@ -6523,7 +6528,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>699</v>
       </c>
@@ -6531,7 +6536,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>701</v>
       </c>
@@ -6539,7 +6544,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>702</v>
       </c>
@@ -6547,7 +6552,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>704</v>
       </c>
@@ -6555,7 +6560,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>706</v>
       </c>
@@ -6563,7 +6568,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>708</v>
       </c>
@@ -6571,7 +6576,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>710</v>
       </c>
@@ -6579,7 +6584,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>712</v>
       </c>
@@ -6587,7 +6592,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>714</v>
       </c>
@@ -6595,7 +6600,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>716</v>
       </c>
@@ -6603,7 +6608,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>718</v>
       </c>
@@ -6611,7 +6616,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>719</v>
       </c>
@@ -6619,7 +6624,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>720</v>
       </c>
@@ -6627,7 +6632,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>721</v>
       </c>
@@ -6635,7 +6640,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>722</v>
       </c>
@@ -6643,7 +6648,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>723</v>
       </c>
@@ -6651,7 +6656,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>724</v>
       </c>
@@ -6659,7 +6664,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>725</v>
       </c>
@@ -6667,7 +6672,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>727</v>
       </c>
@@ -6675,7 +6680,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>729</v>
       </c>
@@ -6683,7 +6688,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>730</v>
       </c>
@@ -6691,7 +6696,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>731</v>
       </c>
@@ -6699,7 +6704,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>732</v>
       </c>
@@ -6707,7 +6712,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>734</v>
       </c>
@@ -6715,7 +6720,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>735</v>
       </c>
@@ -6723,7 +6728,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>736</v>
       </c>
@@ -6731,7 +6736,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>737</v>
       </c>
@@ -6739,7 +6744,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>738</v>
       </c>
@@ -6747,7 +6752,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>739</v>
       </c>
@@ -6755,7 +6760,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>740</v>
       </c>
@@ -6763,7 +6768,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>741</v>
       </c>
@@ -6771,7 +6776,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>742</v>
       </c>
@@ -6779,7 +6784,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>743</v>
       </c>
@@ -6787,7 +6792,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>744</v>
       </c>
@@ -6795,7 +6800,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>745</v>
       </c>
@@ -6803,7 +6808,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>746</v>
       </c>
@@ -6811,7 +6816,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>747</v>
       </c>
@@ -6819,7 +6824,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>748</v>
       </c>
@@ -6827,7 +6832,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>749</v>
       </c>
@@ -6835,7 +6840,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>750</v>
       </c>
@@ -6843,7 +6848,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>751</v>
       </c>
@@ -6851,7 +6856,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>752</v>
       </c>
@@ -6859,7 +6864,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>753</v>
       </c>
@@ -6867,7 +6872,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>754</v>
       </c>
@@ -6875,7 +6880,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>755</v>
       </c>
@@ -6883,7 +6888,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>756</v>
       </c>
@@ -6891,7 +6896,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>757</v>
       </c>
@@ -6899,7 +6904,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>758</v>
       </c>
@@ -6907,7 +6912,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>759</v>
       </c>
@@ -6915,7 +6920,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>760</v>
       </c>
@@ -6923,7 +6928,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>762</v>
       </c>
@@ -6931,7 +6936,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>763</v>
       </c>
@@ -6939,7 +6944,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>764</v>
       </c>
@@ -6947,7 +6952,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>765</v>
       </c>
@@ -6955,7 +6960,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>766</v>
       </c>
@@ -6963,7 +6968,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>767</v>
       </c>
@@ -6971,7 +6976,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>768</v>
       </c>
@@ -6979,7 +6984,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>769</v>
       </c>
@@ -6987,7 +6992,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>770</v>
       </c>
@@ -6995,7 +7000,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>771</v>
       </c>
@@ -7003,7 +7008,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>772</v>
       </c>
@@ -7011,7 +7016,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>773</v>
       </c>
@@ -7019,7 +7024,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>774</v>
       </c>
@@ -7027,7 +7032,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>775</v>
       </c>
@@ -7035,7 +7040,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>776</v>
       </c>
@@ -7043,7 +7048,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>777</v>
       </c>
@@ -7051,7 +7056,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>778</v>
       </c>
@@ -7059,7 +7064,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>779</v>
       </c>
@@ -7067,7 +7072,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>780</v>
       </c>
@@ -7075,7 +7080,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>781</v>
       </c>
@@ -7083,7 +7088,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>782</v>
       </c>
@@ -7091,7 +7096,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>783</v>
       </c>
@@ -7099,7 +7104,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>784</v>
       </c>
@@ -7107,7 +7112,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>785</v>
       </c>
@@ -7115,7 +7120,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>786</v>
       </c>
@@ -7123,7 +7128,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>787</v>
       </c>
@@ -7131,7 +7136,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>788</v>
       </c>
@@ -7139,7 +7144,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>789</v>
       </c>
@@ -7147,7 +7152,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>790</v>
       </c>
@@ -7155,7 +7160,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>791</v>
       </c>
@@ -7163,7 +7168,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>792</v>
       </c>
@@ -7171,7 +7176,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>794</v>
       </c>
@@ -7179,7 +7184,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>795</v>
       </c>
@@ -7187,7 +7192,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>796</v>
       </c>
@@ -7195,7 +7200,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>797</v>
       </c>
@@ -7203,7 +7208,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>798</v>
       </c>
@@ -7211,7 +7216,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>799</v>
       </c>
@@ -7219,7 +7224,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>800</v>
       </c>
@@ -7227,7 +7232,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>801</v>
       </c>
@@ -7235,7 +7240,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>802</v>
       </c>
@@ -7243,7 +7248,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>803</v>
       </c>
@@ -7251,7 +7256,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>804</v>
       </c>
@@ -7259,7 +7264,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>805</v>
       </c>
@@ -7267,7 +7272,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>806</v>
       </c>
@@ -7275,7 +7280,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>807</v>
       </c>
@@ -7283,7 +7288,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>808</v>
       </c>
@@ -7291,7 +7296,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>809</v>
       </c>
@@ -7299,7 +7304,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>810</v>
       </c>
@@ -7307,7 +7312,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>811</v>
       </c>
@@ -7315,7 +7320,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>812</v>
       </c>
@@ -7323,7 +7328,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>813</v>
       </c>
@@ -7331,7 +7336,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>814</v>
       </c>
@@ -7339,7 +7344,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>815</v>
       </c>
@@ -7347,7 +7352,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>816</v>
       </c>
@@ -7355,7 +7360,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>817</v>
       </c>
@@ -7363,7 +7368,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>818</v>
       </c>
@@ -7371,7 +7376,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>819</v>
       </c>
@@ -7379,7 +7384,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>820</v>
       </c>
@@ -7387,7 +7392,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>821</v>
       </c>
@@ -7395,7 +7400,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>822</v>
       </c>
@@ -7403,7 +7408,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>823</v>
       </c>
@@ -7411,7 +7416,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>824</v>
       </c>
@@ -7419,7 +7424,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>825</v>
       </c>
@@ -7427,7 +7432,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>826</v>
       </c>
@@ -7435,7 +7440,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>827</v>
       </c>
@@ -7443,7 +7448,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>828</v>
       </c>
@@ -7451,7 +7456,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>829</v>
       </c>
@@ -7459,7 +7464,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>830</v>
       </c>
@@ -7467,7 +7472,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>831</v>
       </c>
@@ -7475,7 +7480,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>832</v>
       </c>
@@ -7483,7 +7488,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>833</v>
       </c>
@@ -7491,7 +7496,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>834</v>
       </c>
@@ -7499,7 +7504,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>835</v>
       </c>
@@ -7507,7 +7512,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>836</v>
       </c>
@@ -7515,7 +7520,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>837</v>
       </c>
@@ -7523,7 +7528,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>838</v>
       </c>
@@ -7531,7 +7536,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>839</v>
       </c>
@@ -7539,7 +7544,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>840</v>
       </c>
@@ -7547,7 +7552,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>841</v>
       </c>
@@ -7555,7 +7560,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>842</v>
       </c>
@@ -7563,7 +7568,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>843</v>
       </c>
@@ -7571,7 +7576,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>844</v>
       </c>
@@ -7579,7 +7584,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>845</v>
       </c>
@@ -7587,7 +7592,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>846</v>
       </c>
@@ -7595,7 +7600,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>847</v>
       </c>
@@ -7603,7 +7608,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>848</v>
       </c>
@@ -7611,7 +7616,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>849</v>
       </c>
@@ -7619,7 +7624,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>850</v>
       </c>
@@ -7627,7 +7632,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>851</v>
       </c>
@@ -7635,7 +7640,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>852</v>
       </c>
@@ -7643,7 +7648,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>853</v>
       </c>
@@ -7651,7 +7656,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>854</v>
       </c>
@@ -7659,7 +7664,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>855</v>
       </c>
@@ -7667,7 +7672,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>856</v>
       </c>
@@ -7675,7 +7680,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>857</v>
       </c>
@@ -7683,7 +7688,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>858</v>
       </c>
@@ -7691,7 +7696,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>859</v>
       </c>
@@ -7699,7 +7704,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>860</v>
       </c>
@@ -7707,7 +7712,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>861</v>
       </c>
@@ -7715,7 +7720,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>862</v>
       </c>
@@ -7723,7 +7728,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>863</v>
       </c>
@@ -7731,7 +7736,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>864</v>
       </c>
@@ -7739,7 +7744,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>865</v>
       </c>
@@ -7747,7 +7752,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>867</v>
       </c>
@@ -7755,7 +7760,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>868</v>
       </c>
@@ -7763,7 +7768,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>869</v>
       </c>
@@ -7771,7 +7776,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>870</v>
       </c>
@@ -7779,7 +7784,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>872</v>
       </c>
@@ -7787,7 +7792,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>873</v>
       </c>
@@ -7795,7 +7800,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>875</v>
       </c>
@@ -7803,7 +7808,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>876</v>
       </c>
@@ -7811,7 +7816,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>877</v>
       </c>
@@ -7819,7 +7824,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>878</v>
       </c>
@@ -7827,7 +7832,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>880</v>
       </c>
@@ -7835,7 +7840,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>881</v>
       </c>
@@ -7843,7 +7848,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>882</v>
       </c>
@@ -7851,7 +7856,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>883</v>
       </c>
@@ -7859,7 +7864,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>885</v>
       </c>
@@ -7867,7 +7872,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>886</v>
       </c>
@@ -7875,7 +7880,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>888</v>
       </c>
@@ -7883,7 +7888,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>889</v>
       </c>
@@ -7891,7 +7896,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>890</v>
       </c>
@@ -7899,7 +7904,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>892</v>
       </c>
@@ -7907,7 +7912,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>894</v>
       </c>
@@ -7915,7 +7920,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>896</v>
       </c>
@@ -7923,7 +7928,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>898</v>
       </c>
@@ -7931,7 +7936,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>899</v>
       </c>
@@ -7939,7 +7944,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>900</v>
       </c>
@@ -7947,7 +7952,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>901</v>
       </c>
@@ -7955,7 +7960,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>902</v>
       </c>
@@ -7963,7 +7968,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>904</v>
       </c>
@@ -7971,7 +7976,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>906</v>
       </c>
@@ -7979,7 +7984,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>907</v>
       </c>
@@ -7987,7 +7992,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>909</v>
       </c>
@@ -7996,6 +8001,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B609" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1661"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>